--- a/WebApplication1/Forms/02_bloksaplamaları.xlsx
+++ b/WebApplication1/Forms/02_bloksaplamaları.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4755" windowWidth="28560" windowHeight="10140"/>
+    <workbookView xWindow="120" yWindow="4752" windowWidth="28560" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,12 @@
     <definedName name="Metin96" localSheetId="0">Sheet1!$K$39</definedName>
     <definedName name="Metin97" localSheetId="0">Sheet1!$K$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="28">
   <si>
     <t>Engine</t>
   </si>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,335 +776,311 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,7 +1224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,7 +1259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,1504 +1471,1514 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6" style="28" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="28"/>
+    <col min="5" max="5" width="7.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="28" customWidth="1"/>
+    <col min="9" max="12" width="8.88671875" style="28"/>
+    <col min="13" max="13" width="6.33203125" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="48" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="46" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="48" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="48" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
+    <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="e">
+      <c r="C4" s="1"/>
+      <c r="D4" s="44" t="e">
         <f xml:space="preserve"> (C4-E4)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="3" t="e">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="44" t="e">
         <f xml:space="preserve"> ((I4-K4)/K4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="6">
+      <c r="K4" s="8"/>
+      <c r="L4" s="48">
         <v>1</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="3" t="e">
+      <c r="C5" s="14"/>
+      <c r="D5" s="44" t="e">
         <f t="shared" ref="D5:D31" si="0" xml:space="preserve"> (C5-E5)/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="3" t="e">
+      <c r="E5" s="4"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="44" t="e">
         <f xml:space="preserve"> ((I5-K5)/K5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="K5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="55">
         <v>2</v>
       </c>
-      <c r="M5" s="64"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="7">
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50">
         <v>3</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="e">
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3" t="e">
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="44" t="e">
         <f t="shared" ref="J6:J32" si="1" xml:space="preserve"> ((I6-K6)/K6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="55">
         <v>3</v>
       </c>
-      <c r="M6" s="64"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="1">
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="e">
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="66">
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3" t="e">
+      <c r="H7" s="58"/>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K7" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="60">
         <v>4</v>
       </c>
-      <c r="M7" s="65"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="43">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="e">
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="3" t="e">
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="48">
         <v>1</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="42">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
-      <c r="B9" s="7">
+    <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50">
         <v>2</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="e">
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="3" t="e">
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="55">
         <v>2</v>
       </c>
-      <c r="M9" s="64"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="7">
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50">
         <v>3</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="e">
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="3" t="e">
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="55">
         <v>3</v>
       </c>
-      <c r="M10" s="64"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="1">
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57">
         <v>4</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="e">
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="66">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="59">
         <v>2</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3" t="e">
+      <c r="H11" s="58"/>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="11">
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="60">
         <v>4</v>
       </c>
-      <c r="M11" s="65"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
+      <c r="M11" s="56"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="43">
         <v>1</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="e">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="3" t="e">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="48">
         <v>1</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50">
         <v>2</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="e">
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3" t="e">
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="55">
         <v>2</v>
       </c>
-      <c r="M13" s="64"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="7">
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50">
         <v>3</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="e">
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="3" t="e">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="55">
         <v>3</v>
       </c>
-      <c r="M14" s="64"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="1">
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="e">
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="66">
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59">
         <v>3</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="e">
+      <c r="H15" s="58"/>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="K15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="60">
         <v>4</v>
       </c>
-      <c r="M15" s="65"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63">
+      <c r="M15" s="56"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="43">
         <v>1</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="e">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="3" t="e">
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K16" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="48">
         <v>1</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50">
         <v>2</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="e">
+      <c r="C17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3" t="e">
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="9">
+      <c r="K17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="55">
         <v>2</v>
       </c>
-      <c r="M17" s="64"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="7">
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50">
         <v>3</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3" t="e">
+      <c r="C18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="3" t="e">
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K18" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="K18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="55">
         <v>3</v>
       </c>
-      <c r="M18" s="64"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="1">
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57">
         <v>4</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="e">
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="66">
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59">
         <v>4</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="3" t="e">
+      <c r="H19" s="58"/>
+      <c r="I19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="K19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="60">
         <v>4</v>
       </c>
-      <c r="M19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63">
+      <c r="M19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="43">
         <v>1</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3" t="e">
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="44" t="e">
         <f xml:space="preserve"> (C20-E20)/E20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="3" t="e">
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="48">
         <v>1</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="7">
+    <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50">
         <v>2</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="e">
+      <c r="C21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="3" t="e">
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="44" t="e">
         <f xml:space="preserve"> ((I21-K21)/K21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K21" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="K21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="55">
         <v>2</v>
       </c>
-      <c r="M21" s="64"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="7">
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50">
         <v>3</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="e">
+      <c r="C22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="3" t="e">
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="9">
+      <c r="K22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="55">
         <v>3</v>
       </c>
-      <c r="M22" s="64"/>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="1">
+      <c r="M22" s="49"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57">
         <v>4</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="e">
+      <c r="C23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="66">
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59">
         <v>5</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="3" t="e">
+      <c r="H23" s="58"/>
+      <c r="I23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K23" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="K23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="60">
         <v>4</v>
       </c>
-      <c r="M23" s="65"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63">
+      <c r="M23" s="56"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="43">
         <v>1</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="e">
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="3" t="e">
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="K24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="48">
         <v>1</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="42">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="7">
+    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50">
         <v>2</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3" t="e">
+      <c r="C25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="3" t="e">
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K25" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="K25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="55">
         <v>2</v>
       </c>
-      <c r="M25" s="64"/>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
-      <c r="B26" s="7">
+      <c r="M25" s="49"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50">
         <v>3</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3" t="e">
+      <c r="C26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="3" t="e">
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="52"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K26" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="K26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="55">
         <v>3</v>
       </c>
-      <c r="M26" s="64"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="1">
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57">
         <v>4</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="e">
+      <c r="C27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="66">
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59">
         <v>6</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="3" t="e">
+      <c r="H27" s="58"/>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K27" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="K27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="60">
         <v>4</v>
       </c>
-      <c r="M27" s="65"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63">
+      <c r="M27" s="56"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="43">
         <v>1</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="e">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="3" t="e">
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="K28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="48">
         <v>1</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="7">
+    <row r="29" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50">
         <v>2</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="e">
+      <c r="C29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="3" t="e">
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K29" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="55">
         <v>2</v>
       </c>
-      <c r="M29" s="64"/>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="7">
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50">
         <v>3</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="e">
+      <c r="C30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="3" t="e">
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="44" t="e">
         <f xml:space="preserve"> ((I30-K30)/K30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K30" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="K30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="55">
         <v>3</v>
       </c>
-      <c r="M30" s="64"/>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="1">
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57">
         <v>4</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="e">
+      <c r="C31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="66">
+      <c r="E31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="59">
         <v>7</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="3" t="e">
+      <c r="H31" s="58"/>
+      <c r="I31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="44" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K31" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="11">
+      <c r="K31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="60">
         <v>4</v>
       </c>
-      <c r="M31" s="65"/>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63">
+      <c r="M31" s="56"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="43">
         <v>1</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="e">
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="44" t="e">
         <f xml:space="preserve"> (C32-E32)/E32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="25" t="e">
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="66" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K32" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="26">
+      <c r="K32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="67">
         <v>1</v>
       </c>
-      <c r="M32" s="63">
+      <c r="M32" s="42">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="76">
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="68">
         <v>2</v>
       </c>
-      <c r="C33" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="83" t="e">
+      <c r="C33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="69" t="e">
         <f>(E33-C33)/E33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="93" t="e">
+      <c r="E33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="70" t="e">
         <f>(K33-I33)/K33</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K33" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="L33" s="97">
+      <c r="K33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="71">
         <v>2</v>
       </c>
-      <c r="M33" s="75"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="75"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="75"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="75"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="75"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="75"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="B39" s="7">
+      <c r="M33" s="36"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="36"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50">
         <v>3</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="8" t="e">
+      <c r="C39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="51" t="e">
         <f>(E39-C39)/E39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E39" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="27" t="e">
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="76" t="e">
         <f>(K39-I39)/K39</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="28">
+      <c r="K39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="77">
         <v>3</v>
       </c>
-      <c r="M39" s="75"/>
-    </row>
-    <row r="40" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="7">
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="62"/>
+      <c r="B40" s="50">
         <v>4</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="8" t="e">
+      <c r="C40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="51" t="e">
         <f>(E40-C40)/E40</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E40" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="27" t="e">
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="76" t="e">
         <f t="shared" ref="J40:J44" si="2">(K40-I40)/K40</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K40" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="K40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="55">
         <v>4</v>
       </c>
-      <c r="M40" s="67"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66">
+      <c r="M40" s="62"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="59">
         <v>9</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="50">
         <v>1</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="8" t="e">
+      <c r="C41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="51" t="e">
         <f t="shared" ref="D41:D44" si="3">(E41-C41)/E41</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="27" t="e">
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="81"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="9">
+      <c r="K41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="55">
         <v>1</v>
       </c>
-      <c r="M41" s="66">
+      <c r="M41" s="59">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="7">
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50">
         <v>2</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="8" t="e">
+      <c r="C42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="51" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="27" t="e">
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K42" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="9">
+      <c r="K42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="55">
         <v>2</v>
       </c>
-      <c r="M42" s="64"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="7">
+      <c r="M42" s="49"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50">
         <v>3</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="8" t="e">
+      <c r="C43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="51" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="27" t="e">
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K43" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" s="9">
+      <c r="K43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="55">
         <v>3</v>
       </c>
-      <c r="M43" s="64"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="13">
+      <c r="M43" s="49"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="56"/>
+      <c r="B44" s="84">
         <v>4</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="8" t="e">
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="51" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E44" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="89"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="27" t="e">
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="14">
+      <c r="K44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="85">
         <v>4</v>
       </c>
-      <c r="M44" s="65"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="M44" s="56"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="91" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="C48" s="21" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="92"/>
+      <c r="C48" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="92"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-    </row>
-    <row r="52" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="82" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="95"/>
+    </row>
+    <row r="52" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="F52" s="82" t="s">
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="F52" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="95"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:H40"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="F41:H44"/>
-    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="F21:H22"/>
@@ -3009,27 +2995,18 @@
     <mergeCell ref="M32:M40"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:H40"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="F41:H44"/>
+    <mergeCell ref="L33:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebApplication1/Forms/02_bloksaplamaları.xlsx
+++ b/WebApplication1/Forms/02_bloksaplamaları.xlsx
@@ -937,6 +937,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,9 +1071,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -972,115 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,88 +1097,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3627120" y="7117080"/>
-          <a:ext cx="632460" cy="716280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="tr-TR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>        8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,21 +1412,21 @@
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1523,17 +1441,17 @@
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="20" t="s">
         <v>4</v>
       </c>
@@ -1555,9 +1473,9 @@
       <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1491,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -1585,9 +1503,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="3"/>
       <c r="J4" s="24" t="e">
         <f xml:space="preserve"> ((I4-K4)/K4)</f>
@@ -1597,12 +1515,12 @@
       <c r="L4" s="25">
         <v>1</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -1612,9 +1530,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="70"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="72"/>
       <c r="I5" s="4"/>
       <c r="J5" s="24" t="e">
         <f xml:space="preserve"> ((I5-K5)/K5)</f>
@@ -1624,10 +1542,10 @@
       <c r="L5" s="28">
         <v>2</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -1637,9 +1555,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="70"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="4"/>
       <c r="J6" s="24" t="e">
         <f t="shared" ref="J6:J32" si="1" xml:space="preserve"> ((I6-K6)/K6)</f>
@@ -1649,10 +1567,10 @@
       <c r="L6" s="28">
         <v>3</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="29">
         <v>4</v>
       </c>
@@ -1663,7 +1581,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="66">
+      <c r="G7" s="51">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -1676,10 +1594,10 @@
       <c r="L7" s="31">
         <v>4</v>
       </c>
-      <c r="M7" s="65"/>
+      <c r="M7" s="53"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63">
+      <c r="A8" s="74">
         <v>2</v>
       </c>
       <c r="B8" s="23">
@@ -1692,7 +1610,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="67"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="32"/>
       <c r="I8" s="3"/>
       <c r="J8" s="24" t="e">
@@ -1703,12 +1621,12 @@
       <c r="L8" s="25">
         <v>1</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="74">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -1718,9 +1636,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="4"/>
       <c r="J9" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1730,10 +1648,10 @@
       <c r="L9" s="28">
         <v>2</v>
       </c>
-      <c r="M9" s="64"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="26">
         <v>3</v>
       </c>
@@ -1743,9 +1661,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="72"/>
       <c r="I10" s="4"/>
       <c r="J10" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1755,10 +1673,10 @@
       <c r="L10" s="28">
         <v>3</v>
       </c>
-      <c r="M10" s="64"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="29">
         <v>4</v>
       </c>
@@ -1769,7 +1687,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="66">
+      <c r="G11" s="51">
         <v>2</v>
       </c>
       <c r="H11" s="30"/>
@@ -1782,10 +1700,10 @@
       <c r="L11" s="31">
         <v>4</v>
       </c>
-      <c r="M11" s="65"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63">
+      <c r="A12" s="74">
         <v>3</v>
       </c>
       <c r="B12" s="23">
@@ -1798,7 +1716,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="67"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="32"/>
       <c r="I12" s="3"/>
       <c r="J12" s="24" t="e">
@@ -1809,12 +1727,12 @@
       <c r="L12" s="25">
         <v>1</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="74">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="26">
         <v>2</v>
       </c>
@@ -1824,9 +1742,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="4"/>
       <c r="J13" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1836,10 +1754,10 @@
       <c r="L13" s="28">
         <v>2</v>
       </c>
-      <c r="M13" s="64"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="26">
         <v>3</v>
       </c>
@@ -1849,9 +1767,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="72"/>
       <c r="I14" s="4"/>
       <c r="J14" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1861,10 +1779,10 @@
       <c r="L14" s="28">
         <v>3</v>
       </c>
-      <c r="M14" s="64"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="29">
         <v>4</v>
       </c>
@@ -1875,7 +1793,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="66">
+      <c r="G15" s="51">
         <v>3</v>
       </c>
       <c r="H15" s="30"/>
@@ -1888,10 +1806,10 @@
       <c r="L15" s="31">
         <v>4</v>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63">
+      <c r="A16" s="74">
         <v>4</v>
       </c>
       <c r="B16" s="23">
@@ -1904,7 +1822,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="67"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="32"/>
       <c r="I16" s="3"/>
       <c r="J16" s="24" t="e">
@@ -1915,12 +1833,12 @@
       <c r="L16" s="25">
         <v>1</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="74">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -1930,9 +1848,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="4"/>
       <c r="J17" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1942,10 +1860,10 @@
       <c r="L17" s="28">
         <v>2</v>
       </c>
-      <c r="M17" s="64"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="64"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -1955,9 +1873,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="70"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="4"/>
       <c r="J18" s="24" t="e">
         <f t="shared" si="1"/>
@@ -1967,10 +1885,10 @@
       <c r="L18" s="28">
         <v>3</v>
       </c>
-      <c r="M18" s="64"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="65"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="29">
         <v>4</v>
       </c>
@@ -1981,7 +1899,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="66">
+      <c r="G19" s="51">
         <v>4</v>
       </c>
       <c r="H19" s="30"/>
@@ -1994,10 +1912,10 @@
       <c r="L19" s="31">
         <v>4</v>
       </c>
-      <c r="M19" s="65"/>
+      <c r="M19" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63">
+      <c r="A20" s="74">
         <v>5</v>
       </c>
       <c r="B20" s="23">
@@ -2010,7 +1928,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="67"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="32"/>
       <c r="I20" s="3"/>
       <c r="J20" s="24" t="e">
@@ -2021,12 +1939,12 @@
       <c r="L20" s="25">
         <v>1</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="74">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="26">
         <v>2</v>
       </c>
@@ -2036,9 +1954,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="70"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="4"/>
       <c r="J21" s="24" t="e">
         <f xml:space="preserve"> ((I21-K21)/K21)</f>
@@ -2048,10 +1966,10 @@
       <c r="L21" s="28">
         <v>2</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="26">
         <v>3</v>
       </c>
@@ -2061,9 +1979,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="70"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="72"/>
       <c r="I22" s="4"/>
       <c r="J22" s="24" t="e">
         <f t="shared" si="1"/>
@@ -2073,10 +1991,10 @@
       <c r="L22" s="28">
         <v>3</v>
       </c>
-      <c r="M22" s="64"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="29">
         <v>4</v>
       </c>
@@ -2087,7 +2005,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="66">
+      <c r="G23" s="51">
         <v>5</v>
       </c>
       <c r="H23" s="30"/>
@@ -2100,10 +2018,10 @@
       <c r="L23" s="31">
         <v>4</v>
       </c>
-      <c r="M23" s="65"/>
+      <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63">
+      <c r="A24" s="74">
         <v>6</v>
       </c>
       <c r="B24" s="23">
@@ -2116,7 +2034,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="32"/>
       <c r="I24" s="3"/>
       <c r="J24" s="24" t="e">
@@ -2127,12 +2045,12 @@
       <c r="L24" s="25">
         <v>1</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="74">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="64"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
@@ -2142,9 +2060,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="4"/>
       <c r="J25" s="24" t="e">
         <f t="shared" si="1"/>
@@ -2154,10 +2072,10 @@
       <c r="L25" s="28">
         <v>2</v>
       </c>
-      <c r="M25" s="64"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="26">
         <v>3</v>
       </c>
@@ -2167,9 +2085,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="4"/>
       <c r="J26" s="24" t="e">
         <f t="shared" si="1"/>
@@ -2179,10 +2097,10 @@
       <c r="L26" s="28">
         <v>3</v>
       </c>
-      <c r="M26" s="64"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="29">
         <v>4</v>
       </c>
@@ -2193,7 +2111,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="66">
+      <c r="G27" s="51">
         <v>6</v>
       </c>
       <c r="H27" s="30"/>
@@ -2206,10 +2124,10 @@
       <c r="L27" s="31">
         <v>4</v>
       </c>
-      <c r="M27" s="65"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63">
+      <c r="A28" s="74">
         <v>7</v>
       </c>
       <c r="B28" s="23">
@@ -2222,7 +2140,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="67"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="32"/>
       <c r="I28" s="3"/>
       <c r="J28" s="24" t="e">
@@ -2233,12 +2151,12 @@
       <c r="L28" s="25">
         <v>1</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="74">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="64"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="26">
         <v>2</v>
       </c>
@@ -2248,9 +2166,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="72"/>
       <c r="I29" s="4"/>
       <c r="J29" s="24" t="e">
         <f t="shared" si="1"/>
@@ -2260,10 +2178,10 @@
       <c r="L29" s="28">
         <v>2</v>
       </c>
-      <c r="M29" s="64"/>
+      <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="64"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="26">
         <v>3</v>
       </c>
@@ -2273,9 +2191,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="70"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="4"/>
       <c r="J30" s="24" t="e">
         <f xml:space="preserve"> ((I30-K30)/K30)</f>
@@ -2285,10 +2203,10 @@
       <c r="L30" s="28">
         <v>3</v>
       </c>
-      <c r="M30" s="64"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="29">
         <v>4</v>
       </c>
@@ -2299,7 +2217,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="66">
+      <c r="G31" s="51">
         <v>7</v>
       </c>
       <c r="H31" s="30"/>
@@ -2312,10 +2230,10 @@
       <c r="L31" s="31">
         <v>4</v>
       </c>
-      <c r="M31" s="65"/>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63">
+      <c r="A32" s="74">
         <v>8</v>
       </c>
       <c r="B32" s="23">
@@ -2328,7 +2246,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="67"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="35" t="e">
@@ -2339,112 +2257,112 @@
       <c r="L32" s="36">
         <v>1</v>
       </c>
-      <c r="M32" s="63">
+      <c r="M32" s="74">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="75">
+      <c r="A33" s="52"/>
+      <c r="B33" s="77">
         <v>2</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="82" t="e">
+      <c r="C33" s="80"/>
+      <c r="D33" s="55" t="e">
         <f>(E33-C33)/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92" t="e">
+      <c r="E33" s="58"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68" t="e">
         <f>(K33-I33)/K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="91"/>
-      <c r="L33" s="96">
+      <c r="K33" s="67"/>
+      <c r="L33" s="73">
         <v>2</v>
       </c>
-      <c r="M33" s="59"/>
+      <c r="M33" s="76"/>
     </row>
     <row r="34" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="59"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="76"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="59"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="76"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="59"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="76"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="64"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="59"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="76"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="64"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="59"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="64"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="26">
         <v>3</v>
       </c>
@@ -2454,9 +2372,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="74"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
       <c r="I39" s="15"/>
       <c r="J39" s="37" t="e">
         <f>(K39-I39)/K39</f>
@@ -2466,10 +2384,10 @@
       <c r="L39" s="38">
         <v>3</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="76"/>
     </row>
     <row r="40" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="67"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="26">
         <v>4</v>
       </c>
@@ -2479,9 +2397,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="4"/>
       <c r="J40" s="37" t="e">
         <f t="shared" ref="J40:J44" si="2">(K40-I40)/K40</f>
@@ -2491,10 +2409,10 @@
       <c r="L40" s="28">
         <v>4</v>
       </c>
-      <c r="M40" s="67"/>
+      <c r="M40" s="75"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="66">
+      <c r="A41" s="51">
         <v>9</v>
       </c>
       <c r="B41" s="26">
@@ -2506,9 +2424,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="95"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="4"/>
       <c r="J41" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2518,12 +2436,12 @@
       <c r="L41" s="28">
         <v>1</v>
       </c>
-      <c r="M41" s="66">
+      <c r="M41" s="51">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="64"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="26">
         <v>2</v>
       </c>
@@ -2533,9 +2451,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="70"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="72"/>
       <c r="I42" s="4"/>
       <c r="J42" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2545,10 +2463,10 @@
       <c r="L42" s="28">
         <v>2</v>
       </c>
-      <c r="M42" s="64"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="64"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="26">
         <v>3</v>
       </c>
@@ -2558,9 +2476,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="70"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="4"/>
       <c r="J43" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2570,10 +2488,10 @@
       <c r="L43" s="28">
         <v>3</v>
       </c>
-      <c r="M43" s="64"/>
+      <c r="M43" s="52"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="65"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="39">
         <v>4</v>
       </c>
@@ -2583,9 +2501,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="90"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="6"/>
       <c r="J44" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2595,7 +2513,7 @@
       <c r="L44" s="40">
         <v>4</v>
       </c>
-      <c r="M44" s="65"/>
+      <c r="M44" s="53"/>
     </row>
     <row r="45" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
@@ -2652,19 +2570,19 @@
       <c r="A51" s="50"/>
     </row>
     <row r="52" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="F52" s="81" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="F52" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
@@ -2680,18 +2598,27 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:H40"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="F41:H44"/>
-    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="F21:H22"/>
@@ -2708,30 +2635,20 @@
     <mergeCell ref="M32:M40"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:H40"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="F41:H44"/>
+    <mergeCell ref="L33:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebApplication1/Forms/02_bloksaplamaları.xlsx
+++ b/WebApplication1/Forms/02_bloksaplamaları.xlsx
@@ -405,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -772,11 +772,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,14 +946,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -970,15 +1069,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,92 +1085,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,21 +1427,21 @@
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="86" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="86" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="88"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1441,17 +1456,17 @@
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="20" t="s">
         <v>4</v>
       </c>
@@ -1473,9 +1488,9 @@
       <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1506,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -1503,9 +1518,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="3"/>
       <c r="J4" s="24" t="e">
         <f xml:space="preserve"> ((I4-K4)/K4)</f>
@@ -1515,12 +1530,12 @@
       <c r="L4" s="25">
         <v>1</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -1530,8 +1545,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="63"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="72"/>
       <c r="I5" s="4"/>
       <c r="J5" s="24" t="e">
@@ -1542,10 +1557,10 @@
       <c r="L5" s="28">
         <v>2</v>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -1555,8 +1570,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="72"/>
       <c r="I6" s="4"/>
       <c r="J6" s="24" t="e">
@@ -1567,10 +1582,10 @@
       <c r="L6" s="28">
         <v>3</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="29">
         <v>4</v>
       </c>
@@ -1581,7 +1596,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="51">
+      <c r="G7" s="68">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -1594,10 +1609,10 @@
       <c r="L7" s="31">
         <v>4</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="65">
         <v>2</v>
       </c>
       <c r="B8" s="23">
@@ -1610,7 +1625,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="75"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="32"/>
       <c r="I8" s="3"/>
       <c r="J8" s="24" t="e">
@@ -1621,12 +1636,12 @@
       <c r="L8" s="25">
         <v>1</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -1636,8 +1651,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="72"/>
       <c r="I9" s="4"/>
       <c r="J9" s="24" t="e">
@@ -1648,10 +1663,10 @@
       <c r="L9" s="28">
         <v>2</v>
       </c>
-      <c r="M9" s="52"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="26">
         <v>3</v>
       </c>
@@ -1661,8 +1676,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="72"/>
       <c r="I10" s="4"/>
       <c r="J10" s="24" t="e">
@@ -1673,10 +1688,10 @@
       <c r="L10" s="28">
         <v>3</v>
       </c>
-      <c r="M10" s="52"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="29">
         <v>4</v>
       </c>
@@ -1687,7 +1702,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="51">
+      <c r="G11" s="68">
         <v>2</v>
       </c>
       <c r="H11" s="30"/>
@@ -1700,10 +1715,10 @@
       <c r="L11" s="31">
         <v>4</v>
       </c>
-      <c r="M11" s="53"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="65">
         <v>3</v>
       </c>
       <c r="B12" s="23">
@@ -1716,7 +1731,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="75"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="32"/>
       <c r="I12" s="3"/>
       <c r="J12" s="24" t="e">
@@ -1727,12 +1742,12 @@
       <c r="L12" s="25">
         <v>1</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="65">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="26">
         <v>2</v>
       </c>
@@ -1742,8 +1757,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="72"/>
       <c r="I13" s="4"/>
       <c r="J13" s="24" t="e">
@@ -1754,10 +1769,10 @@
       <c r="L13" s="28">
         <v>2</v>
       </c>
-      <c r="M13" s="52"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="26">
         <v>3</v>
       </c>
@@ -1767,8 +1782,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="72"/>
       <c r="I14" s="4"/>
       <c r="J14" s="24" t="e">
@@ -1779,10 +1794,10 @@
       <c r="L14" s="28">
         <v>3</v>
       </c>
-      <c r="M14" s="52"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="29">
         <v>4</v>
       </c>
@@ -1793,7 +1808,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="51">
+      <c r="G15" s="68">
         <v>3</v>
       </c>
       <c r="H15" s="30"/>
@@ -1806,10 +1821,10 @@
       <c r="L15" s="31">
         <v>4</v>
       </c>
-      <c r="M15" s="53"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="65">
         <v>4</v>
       </c>
       <c r="B16" s="23">
@@ -1822,7 +1837,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="75"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="32"/>
       <c r="I16" s="3"/>
       <c r="J16" s="24" t="e">
@@ -1833,12 +1848,12 @@
       <c r="L16" s="25">
         <v>1</v>
       </c>
-      <c r="M16" s="74">
+      <c r="M16" s="65">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -1848,8 +1863,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="72"/>
       <c r="I17" s="4"/>
       <c r="J17" s="24" t="e">
@@ -1860,10 +1875,10 @@
       <c r="L17" s="28">
         <v>2</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -1873,8 +1888,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="72"/>
       <c r="I18" s="4"/>
       <c r="J18" s="24" t="e">
@@ -1885,10 +1900,10 @@
       <c r="L18" s="28">
         <v>3</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="29">
         <v>4</v>
       </c>
@@ -1899,7 +1914,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="51">
+      <c r="G19" s="68">
         <v>4</v>
       </c>
       <c r="H19" s="30"/>
@@ -1912,10 +1927,10 @@
       <c r="L19" s="31">
         <v>4</v>
       </c>
-      <c r="M19" s="53"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="65">
         <v>5</v>
       </c>
       <c r="B20" s="23">
@@ -1928,7 +1943,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="75"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="32"/>
       <c r="I20" s="3"/>
       <c r="J20" s="24" t="e">
@@ -1939,12 +1954,12 @@
       <c r="L20" s="25">
         <v>1</v>
       </c>
-      <c r="M20" s="74">
+      <c r="M20" s="65">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="26">
         <v>2</v>
       </c>
@@ -1954,8 +1969,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="72"/>
       <c r="I21" s="4"/>
       <c r="J21" s="24" t="e">
@@ -1966,10 +1981,10 @@
       <c r="L21" s="28">
         <v>2</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="66"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="26">
         <v>3</v>
       </c>
@@ -1979,8 +1994,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="72"/>
       <c r="I22" s="4"/>
       <c r="J22" s="24" t="e">
@@ -1991,10 +2006,10 @@
       <c r="L22" s="28">
         <v>3</v>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="66"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="53"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="29">
         <v>4</v>
       </c>
@@ -2005,7 +2020,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="51">
+      <c r="G23" s="68">
         <v>5</v>
       </c>
       <c r="H23" s="30"/>
@@ -2018,10 +2033,10 @@
       <c r="L23" s="31">
         <v>4</v>
       </c>
-      <c r="M23" s="53"/>
+      <c r="M23" s="67"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="74">
+      <c r="A24" s="65">
         <v>6</v>
       </c>
       <c r="B24" s="23">
@@ -2034,7 +2049,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="75"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="32"/>
       <c r="I24" s="3"/>
       <c r="J24" s="24" t="e">
@@ -2045,12 +2060,12 @@
       <c r="L24" s="25">
         <v>1</v>
       </c>
-      <c r="M24" s="74">
+      <c r="M24" s="65">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
@@ -2060,8 +2075,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="72"/>
       <c r="I25" s="4"/>
       <c r="J25" s="24" t="e">
@@ -2072,10 +2087,10 @@
       <c r="L25" s="28">
         <v>2</v>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="26">
         <v>3</v>
       </c>
@@ -2085,8 +2100,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="72"/>
       <c r="I26" s="4"/>
       <c r="J26" s="24" t="e">
@@ -2097,10 +2112,10 @@
       <c r="L26" s="28">
         <v>3</v>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="53"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="29">
         <v>4</v>
       </c>
@@ -2111,7 +2126,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="51">
+      <c r="G27" s="68">
         <v>6</v>
       </c>
       <c r="H27" s="30"/>
@@ -2124,10 +2139,10 @@
       <c r="L27" s="31">
         <v>4</v>
       </c>
-      <c r="M27" s="53"/>
+      <c r="M27" s="67"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74">
+      <c r="A28" s="65">
         <v>7</v>
       </c>
       <c r="B28" s="23">
@@ -2140,7 +2155,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="75"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="32"/>
       <c r="I28" s="3"/>
       <c r="J28" s="24" t="e">
@@ -2151,12 +2166,12 @@
       <c r="L28" s="25">
         <v>1</v>
       </c>
-      <c r="M28" s="74">
+      <c r="M28" s="65">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="26">
         <v>2</v>
       </c>
@@ -2166,8 +2181,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="72"/>
       <c r="I29" s="4"/>
       <c r="J29" s="24" t="e">
@@ -2178,10 +2193,10 @@
       <c r="L29" s="28">
         <v>2</v>
       </c>
-      <c r="M29" s="52"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="26">
         <v>3</v>
       </c>
@@ -2191,8 +2206,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="72"/>
       <c r="I30" s="4"/>
       <c r="J30" s="24" t="e">
@@ -2203,10 +2218,10 @@
       <c r="L30" s="28">
         <v>3</v>
       </c>
-      <c r="M30" s="52"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="53"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="29">
         <v>4</v>
       </c>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="51">
+      <c r="G31" s="68">
         <v>7</v>
       </c>
       <c r="H31" s="30"/>
@@ -2230,10 +2245,10 @@
       <c r="L31" s="31">
         <v>4</v>
       </c>
-      <c r="M31" s="53"/>
+      <c r="M31" s="67"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="74">
+      <c r="A32" s="65">
         <v>8</v>
       </c>
       <c r="B32" s="23">
@@ -2246,7 +2261,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="35" t="e">
@@ -2257,112 +2272,112 @@
       <c r="L32" s="36">
         <v>1</v>
       </c>
-      <c r="M32" s="74">
+      <c r="M32" s="65">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="77">
         <v>2</v>
       </c>
       <c r="C33" s="80"/>
-      <c r="D33" s="55" t="e">
+      <c r="D33" s="84" t="e">
         <f>(E33-C33)/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68" t="e">
+      <c r="E33" s="87"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94" t="e">
         <f>(K33-I33)/K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="67"/>
-      <c r="L33" s="73">
+      <c r="K33" s="93"/>
+      <c r="L33" s="95">
         <v>2</v>
       </c>
-      <c r="M33" s="76"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="78"/>
       <c r="C34" s="81"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="76"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="78"/>
       <c r="C35" s="81"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="76"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="78"/>
       <c r="C36" s="81"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="76"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="78"/>
       <c r="C37" s="81"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="76"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="61"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="79"/>
       <c r="C38" s="82"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="76"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="61"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="52"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="26">
         <v>3</v>
       </c>
@@ -2372,9 +2387,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="98"/>
       <c r="I39" s="15"/>
       <c r="J39" s="37" t="e">
         <f>(K39-I39)/K39</f>
@@ -2384,10 +2399,10 @@
       <c r="L39" s="38">
         <v>3</v>
       </c>
-      <c r="M39" s="76"/>
-    </row>
-    <row r="40" spans="1:13" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="75"/>
+      <c r="M39" s="61"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="69"/>
       <c r="B40" s="26">
         <v>4</v>
       </c>
@@ -2397,9 +2412,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="66"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="68">
+        <v>8</v>
+      </c>
+      <c r="H40" s="97"/>
       <c r="I40" s="4"/>
       <c r="J40" s="37" t="e">
         <f t="shared" ref="J40:J44" si="2">(K40-I40)/K40</f>
@@ -2409,10 +2426,10 @@
       <c r="L40" s="28">
         <v>4</v>
       </c>
-      <c r="M40" s="75"/>
+      <c r="M40" s="69"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51">
+      <c r="A41" s="68">
         <v>9</v>
       </c>
       <c r="B41" s="26">
@@ -2424,9 +2441,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="71"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="4"/>
       <c r="J41" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2436,12 +2453,12 @@
       <c r="L41" s="28">
         <v>1</v>
       </c>
-      <c r="M41" s="51">
+      <c r="M41" s="68">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="26">
         <v>2</v>
       </c>
@@ -2451,8 +2468,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="72"/>
       <c r="I42" s="4"/>
       <c r="J42" s="37" t="e">
@@ -2463,10 +2480,10 @@
       <c r="L42" s="28">
         <v>2</v>
       </c>
-      <c r="M42" s="52"/>
+      <c r="M42" s="66"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="26">
         <v>3</v>
       </c>
@@ -2476,8 +2493,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="72"/>
       <c r="I43" s="4"/>
       <c r="J43" s="37" t="e">
@@ -2488,10 +2505,10 @@
       <c r="L43" s="28">
         <v>3</v>
       </c>
-      <c r="M43" s="52"/>
+      <c r="M43" s="66"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="53"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="39">
         <v>4</v>
       </c>
@@ -2501,9 +2518,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="66"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="6"/>
       <c r="J44" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2513,7 +2530,7 @@
       <c r="L44" s="40">
         <v>4</v>
       </c>
-      <c r="M44" s="53"/>
+      <c r="M44" s="67"/>
     </row>
     <row r="45" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
@@ -2570,19 +2587,19 @@
       <c r="A51" s="50"/>
     </row>
     <row r="52" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="F52" s="54" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="F52" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
@@ -2597,12 +2614,36 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="49">
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I1:K2"/>
+  <mergeCells count="50">
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="F33:H39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F42:H44"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="M32:M40"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A8:A11"/>
@@ -2619,34 +2660,11 @@
     <mergeCell ref="M16:M19"/>
     <mergeCell ref="F17:H18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="M32:M40"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:H40"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="F41:H44"/>
-    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebApplication1/Forms/02_bloksaplamaları.xlsx
+++ b/WebApplication1/Forms/02_bloksaplamaları.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Engine</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Damaged thread  </t>
+  </si>
+  <si>
+    <t>{END}</t>
   </si>
 </sst>
 </file>
@@ -952,6 +955,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,9 +1089,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -987,115 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,21 +1430,21 @@
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="53" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="17" t="s">
         <v>3</v>
       </c>
@@ -1456,17 +1459,17 @@
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="20" t="s">
         <v>4</v>
       </c>
@@ -1488,9 +1491,9 @@
       <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1509,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65">
+      <c r="A4" s="76">
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -1518,9 +1521,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="3"/>
       <c r="J4" s="24" t="e">
         <f xml:space="preserve"> ((I4-K4)/K4)</f>
@@ -1530,12 +1533,12 @@
       <c r="L4" s="25">
         <v>1</v>
       </c>
-      <c r="M4" s="65">
+      <c r="M4" s="76">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -1545,8 +1548,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="72"/>
       <c r="I5" s="4"/>
       <c r="J5" s="24" t="e">
@@ -1557,10 +1560,10 @@
       <c r="L5" s="28">
         <v>2</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="66"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -1570,8 +1573,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="72"/>
       <c r="I6" s="4"/>
       <c r="J6" s="24" t="e">
@@ -1582,10 +1585,10 @@
       <c r="L6" s="28">
         <v>3</v>
       </c>
-      <c r="M6" s="66"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="29">
         <v>4</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="68">
+      <c r="G7" s="55">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -1609,10 +1612,10 @@
       <c r="L7" s="31">
         <v>4</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="65">
+      <c r="A8" s="76">
         <v>2</v>
       </c>
       <c r="B8" s="23">
@@ -1625,7 +1628,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="32"/>
       <c r="I8" s="3"/>
       <c r="J8" s="24" t="e">
@@ -1636,12 +1639,12 @@
       <c r="L8" s="25">
         <v>1</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="76">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -1651,8 +1654,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="72"/>
       <c r="I9" s="4"/>
       <c r="J9" s="24" t="e">
@@ -1663,10 +1666,10 @@
       <c r="L9" s="28">
         <v>2</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="26">
         <v>3</v>
       </c>
@@ -1676,8 +1679,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="72"/>
       <c r="I10" s="4"/>
       <c r="J10" s="24" t="e">
@@ -1688,10 +1691,10 @@
       <c r="L10" s="28">
         <v>3</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="29">
         <v>4</v>
       </c>
@@ -1702,7 +1705,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="68">
+      <c r="G11" s="55">
         <v>2</v>
       </c>
       <c r="H11" s="30"/>
@@ -1715,10 +1718,10 @@
       <c r="L11" s="31">
         <v>4</v>
       </c>
-      <c r="M11" s="67"/>
+      <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="65">
+      <c r="A12" s="76">
         <v>3</v>
       </c>
       <c r="B12" s="23">
@@ -1731,7 +1734,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="32"/>
       <c r="I12" s="3"/>
       <c r="J12" s="24" t="e">
@@ -1742,12 +1745,12 @@
       <c r="L12" s="25">
         <v>1</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="76">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="66"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="26">
         <v>2</v>
       </c>
@@ -1757,8 +1760,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="72"/>
       <c r="I13" s="4"/>
       <c r="J13" s="24" t="e">
@@ -1769,10 +1772,10 @@
       <c r="L13" s="28">
         <v>2</v>
       </c>
-      <c r="M13" s="66"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="26">
         <v>3</v>
       </c>
@@ -1782,8 +1785,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="72"/>
       <c r="I14" s="4"/>
       <c r="J14" s="24" t="e">
@@ -1794,10 +1797,10 @@
       <c r="L14" s="28">
         <v>3</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="29">
         <v>4</v>
       </c>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="68">
+      <c r="G15" s="55">
         <v>3</v>
       </c>
       <c r="H15" s="30"/>
@@ -1821,10 +1824,10 @@
       <c r="L15" s="31">
         <v>4</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="65">
+      <c r="A16" s="76">
         <v>4</v>
       </c>
       <c r="B16" s="23">
@@ -1837,7 +1840,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="32"/>
       <c r="I16" s="3"/>
       <c r="J16" s="24" t="e">
@@ -1848,12 +1851,12 @@
       <c r="L16" s="25">
         <v>1</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="76">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="26">
         <v>2</v>
       </c>
@@ -1863,8 +1866,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="72"/>
       <c r="I17" s="4"/>
       <c r="J17" s="24" t="e">
@@ -1875,10 +1878,10 @@
       <c r="L17" s="28">
         <v>2</v>
       </c>
-      <c r="M17" s="66"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="26">
         <v>3</v>
       </c>
@@ -1888,8 +1891,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="72"/>
       <c r="I18" s="4"/>
       <c r="J18" s="24" t="e">
@@ -1900,10 +1903,10 @@
       <c r="L18" s="28">
         <v>3</v>
       </c>
-      <c r="M18" s="66"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="29">
         <v>4</v>
       </c>
@@ -1914,7 +1917,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="68">
+      <c r="G19" s="55">
         <v>4</v>
       </c>
       <c r="H19" s="30"/>
@@ -1927,10 +1930,10 @@
       <c r="L19" s="31">
         <v>4</v>
       </c>
-      <c r="M19" s="67"/>
+      <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="65">
+      <c r="A20" s="76">
         <v>5</v>
       </c>
       <c r="B20" s="23">
@@ -1943,7 +1946,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="32"/>
       <c r="I20" s="3"/>
       <c r="J20" s="24" t="e">
@@ -1954,12 +1957,12 @@
       <c r="L20" s="25">
         <v>1</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="26">
         <v>2</v>
       </c>
@@ -1969,8 +1972,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="72"/>
       <c r="I21" s="4"/>
       <c r="J21" s="24" t="e">
@@ -1981,10 +1984,10 @@
       <c r="L21" s="28">
         <v>2</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="26">
         <v>3</v>
       </c>
@@ -1994,8 +1997,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="72"/>
       <c r="I22" s="4"/>
       <c r="J22" s="24" t="e">
@@ -2006,10 +2009,10 @@
       <c r="L22" s="28">
         <v>3</v>
       </c>
-      <c r="M22" s="66"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="29">
         <v>4</v>
       </c>
@@ -2020,7 +2023,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="68">
+      <c r="G23" s="55">
         <v>5</v>
       </c>
       <c r="H23" s="30"/>
@@ -2033,10 +2036,10 @@
       <c r="L23" s="31">
         <v>4</v>
       </c>
-      <c r="M23" s="67"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65">
+      <c r="A24" s="76">
         <v>6</v>
       </c>
       <c r="B24" s="23">
@@ -2049,7 +2052,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="32"/>
       <c r="I24" s="3"/>
       <c r="J24" s="24" t="e">
@@ -2060,12 +2063,12 @@
       <c r="L24" s="25">
         <v>1</v>
       </c>
-      <c r="M24" s="65">
+      <c r="M24" s="76">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
@@ -2075,8 +2078,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="72"/>
       <c r="I25" s="4"/>
       <c r="J25" s="24" t="e">
@@ -2087,10 +2090,10 @@
       <c r="L25" s="28">
         <v>2</v>
       </c>
-      <c r="M25" s="66"/>
+      <c r="M25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="66"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="26">
         <v>3</v>
       </c>
@@ -2100,8 +2103,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="77"/>
       <c r="H26" s="72"/>
       <c r="I26" s="4"/>
       <c r="J26" s="24" t="e">
@@ -2112,10 +2115,10 @@
       <c r="L26" s="28">
         <v>3</v>
       </c>
-      <c r="M26" s="66"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="29">
         <v>4</v>
       </c>
@@ -2126,7 +2129,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="68">
+      <c r="G27" s="55">
         <v>6</v>
       </c>
       <c r="H27" s="30"/>
@@ -2139,10 +2142,10 @@
       <c r="L27" s="31">
         <v>4</v>
       </c>
-      <c r="M27" s="67"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65">
+      <c r="A28" s="76">
         <v>7</v>
       </c>
       <c r="B28" s="23">
@@ -2155,7 +2158,7 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="32"/>
       <c r="I28" s="3"/>
       <c r="J28" s="24" t="e">
@@ -2166,12 +2169,12 @@
       <c r="L28" s="25">
         <v>1</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="76">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="26">
         <v>2</v>
       </c>
@@ -2181,8 +2184,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="72"/>
       <c r="I29" s="4"/>
       <c r="J29" s="24" t="e">
@@ -2193,10 +2196,10 @@
       <c r="L29" s="28">
         <v>2</v>
       </c>
-      <c r="M29" s="66"/>
+      <c r="M29" s="56"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="26">
         <v>3</v>
       </c>
@@ -2206,8 +2209,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="72"/>
       <c r="I30" s="4"/>
       <c r="J30" s="24" t="e">
@@ -2218,10 +2221,10 @@
       <c r="L30" s="28">
         <v>3</v>
       </c>
-      <c r="M30" s="66"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="29">
         <v>4</v>
       </c>
@@ -2232,7 +2235,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="68">
+      <c r="G31" s="55">
         <v>7</v>
       </c>
       <c r="H31" s="30"/>
@@ -2245,10 +2248,10 @@
       <c r="L31" s="31">
         <v>4</v>
       </c>
-      <c r="M31" s="67"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="65">
+      <c r="A32" s="76">
         <v>8</v>
       </c>
       <c r="B32" s="23">
@@ -2261,7 +2264,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="34"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="71"/>
       <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="35" t="e">
@@ -2272,112 +2275,112 @@
       <c r="L32" s="36">
         <v>1</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="76">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="77">
+      <c r="A33" s="56"/>
+      <c r="B33" s="79">
         <v>2</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="84" t="e">
+      <c r="C33" s="82"/>
+      <c r="D33" s="59" t="e">
         <f>(E33-C33)/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94" t="e">
+      <c r="E33" s="62"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66" t="e">
         <f>(K33-I33)/K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="95">
+      <c r="K33" s="65"/>
+      <c r="L33" s="67">
         <v>2</v>
       </c>
-      <c r="M33" s="61"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="61"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="78"/>
     </row>
     <row r="35" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="61"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="78"/>
     </row>
     <row r="36" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="61"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="78"/>
     </row>
     <row r="37" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="61"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="78"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="66"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="61"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="78"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="66"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="26">
         <v>3</v>
       </c>
@@ -2387,9 +2390,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="98"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="15"/>
       <c r="J39" s="37" t="e">
         <f>(K39-I39)/K39</f>
@@ -2399,10 +2402,10 @@
       <c r="L39" s="38">
         <v>3</v>
       </c>
-      <c r="M39" s="61"/>
+      <c r="M39" s="78"/>
     </row>
     <row r="40" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="69"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="26">
         <v>4</v>
       </c>
@@ -2412,11 +2415,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="68">
+      <c r="F40" s="53"/>
+      <c r="G40" s="55">
         <v>8</v>
       </c>
-      <c r="H40" s="97"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="4"/>
       <c r="J40" s="37" t="e">
         <f t="shared" ref="J40:J44" si="2">(K40-I40)/K40</f>
@@ -2426,10 +2429,10 @@
       <c r="L40" s="28">
         <v>4</v>
       </c>
-      <c r="M40" s="69"/>
+      <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="68">
+      <c r="A41" s="55">
         <v>9</v>
       </c>
       <c r="B41" s="26">
@@ -2442,7 +2445,7 @@
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="51"/>
-      <c r="G41" s="69"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="52"/>
       <c r="I41" s="4"/>
       <c r="J41" s="37" t="e">
@@ -2453,12 +2456,12 @@
       <c r="L41" s="28">
         <v>1</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="55">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="66"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="26">
         <v>2</v>
       </c>
@@ -2468,8 +2471,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="76"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="72"/>
       <c r="I42" s="4"/>
       <c r="J42" s="37" t="e">
@@ -2480,10 +2483,10 @@
       <c r="L42" s="28">
         <v>2</v>
       </c>
-      <c r="M42" s="66"/>
+      <c r="M42" s="56"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="66"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="26">
         <v>3</v>
       </c>
@@ -2493,8 +2496,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="76"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="72"/>
       <c r="I43" s="4"/>
       <c r="J43" s="37" t="e">
@@ -2505,10 +2508,10 @@
       <c r="L43" s="28">
         <v>3</v>
       </c>
-      <c r="M43" s="66"/>
+      <c r="M43" s="56"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="39">
         <v>4</v>
       </c>
@@ -2518,9 +2521,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="6"/>
       <c r="J44" s="37" t="e">
         <f t="shared" si="2"/>
@@ -2530,7 +2533,7 @@
       <c r="L44" s="40">
         <v>4</v>
       </c>
-      <c r="M44" s="67"/>
+      <c r="M44" s="57"/>
     </row>
     <row r="45" spans="1:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
@@ -2568,7 +2571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="50"/>
       <c r="C49" s="48" t="s">
@@ -2578,56 +2581,67 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="50"/>
     </row>
-    <row r="52" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83" t="s">
+    <row r="52" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="F52" s="83" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="F52" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N53" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="50"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="50">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="M41:M44"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="K33:K38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="F33:H39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F42:H44"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="F13:H14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="M20:M23"/>
     <mergeCell ref="F21:H22"/>
@@ -2644,27 +2658,19 @@
     <mergeCell ref="M32:M40"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="F13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="M41:M44"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="K33:K38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="F33:H39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F42:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
